--- a/linreg/rifdid_coefs-sltt_blk0.xlsx
+++ b/linreg/rifdid_coefs-sltt_blk0.xlsx
@@ -258,16 +258,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.049002304268508885</v>
+        <v>-0.049002304268517725</v>
       </c>
       <c r="C2">
-        <v>0.0095999539954170297</v>
+        <v>0.0095999539954200637</v>
       </c>
       <c r="D2">
-        <v>-0.067817891806918607</v>
+        <v>-0.0678178918069334</v>
       </c>
       <c r="E2">
-        <v>-0.030186716730099161</v>
+        <v>-0.030186716730102054</v>
       </c>
     </row>
     <row r="3">
@@ -275,16 +275,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.042550502526179527</v>
+        <v>-0.042550502526166926</v>
       </c>
       <c r="C3">
-        <v>0.0074736633974649231</v>
+        <v>0.0074736633974653317</v>
       </c>
       <c r="D3">
-        <v>-0.057198632302686521</v>
+        <v>-0.057198632302674718</v>
       </c>
       <c r="E3">
-        <v>-0.027902372749672534</v>
+        <v>-0.027902372749659135</v>
       </c>
     </row>
     <row r="4">
@@ -292,16 +292,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.052738038293817242</v>
+        <v>-0.052738038293787738</v>
       </c>
       <c r="C4">
-        <v>0.01000693633499089</v>
+        <v>0.010006936334983401</v>
       </c>
       <c r="D4">
-        <v>-0.072351302691084363</v>
+        <v>-0.072351302691040176</v>
       </c>
       <c r="E4">
-        <v>-0.033124773896550122</v>
+        <v>-0.033124773896535301</v>
       </c>
     </row>
     <row r="5">
@@ -309,16 +309,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-0.04690918954744485</v>
+        <v>-0.046909189547437821</v>
       </c>
       <c r="C5">
-        <v>0.0076626569638557985</v>
+        <v>0.0076626569638577067</v>
       </c>
       <c r="D5">
-        <v>-0.061927743459707793</v>
+        <v>-0.061927743459704504</v>
       </c>
       <c r="E5">
-        <v>-0.031890635635181908</v>
+        <v>-0.031890635635171138</v>
       </c>
     </row>
     <row r="6">
@@ -326,16 +326,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03981779398405931</v>
+        <v>-0.039817793984057145</v>
       </c>
       <c r="C6">
-        <v>0.02426214999184468</v>
+        <v>0.024262149991851389</v>
       </c>
       <c r="D6">
-        <v>-0.087371078534937419</v>
+        <v>-0.08737107853494841</v>
       </c>
       <c r="E6">
-        <v>0.0077354905668187979</v>
+        <v>0.007735490566834112</v>
       </c>
     </row>
     <row r="7">
@@ -343,16 +343,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0376080689290526</v>
+        <v>0.037608068929054515</v>
       </c>
       <c r="C7">
-        <v>0.027578573936221758</v>
+        <v>0.02757857393622663</v>
       </c>
       <c r="D7">
-        <v>-0.016445446507497199</v>
+        <v>-0.016445446507504832</v>
       </c>
       <c r="E7">
-        <v>0.0916615843656024</v>
+        <v>0.091661584365613863</v>
       </c>
     </row>
     <row r="8">
@@ -360,16 +360,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.016294460684375289</v>
+        <v>-0.01629446068438364</v>
       </c>
       <c r="C8">
-        <v>0.0091975464660037243</v>
+        <v>0.0091975464660075668</v>
       </c>
       <c r="D8">
-        <v>-0.034321342974884261</v>
+        <v>-0.034321342974900138</v>
       </c>
       <c r="E8">
-        <v>0.0017324216061336793</v>
+        <v>0.0017324216061328605</v>
       </c>
     </row>
     <row r="9">
@@ -377,16 +377,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.082213005071466186</v>
+        <v>-0.08221300507144863</v>
       </c>
       <c r="C9">
-        <v>0.0074916495532878899</v>
+        <v>0.0074916495532866157</v>
       </c>
       <c r="D9">
-        <v>-0.09689638711057369</v>
+        <v>-0.096896387110553636</v>
       </c>
       <c r="E9">
-        <v>-0.067529623032358682</v>
+        <v>-0.067529623032343625</v>
       </c>
     </row>
     <row r="10">
@@ -394,16 +394,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.023602082905102663</v>
+        <v>-0.023602082905083439</v>
       </c>
       <c r="C10">
-        <v>0.0097338869800495612</v>
+        <v>0.0097338869800464231</v>
       </c>
       <c r="D10">
-        <v>-0.042680179593423587</v>
+        <v>-0.042680179593398204</v>
       </c>
       <c r="E10">
-        <v>-0.0045239862167817425</v>
+        <v>-0.0045239862167686697</v>
       </c>
     </row>
     <row r="11">
@@ -411,16 +411,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.078906544728603326</v>
+        <v>-0.078906544728586658</v>
       </c>
       <c r="C11">
-        <v>0.0074991014693721984</v>
+        <v>0.0074991014693702139</v>
       </c>
       <c r="D11">
-        <v>-0.093604535287562671</v>
+        <v>-0.093604535287542118</v>
       </c>
       <c r="E11">
-        <v>-0.06420855416964398</v>
+        <v>-0.064208554169631199</v>
       </c>
     </row>
     <row r="12">
@@ -428,16 +428,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.048268195435848441</v>
+        <v>-0.048268195435831836</v>
       </c>
       <c r="C12">
-        <v>0.018159070318636394</v>
+        <v>0.018159070318634084</v>
       </c>
       <c r="D12">
-        <v>-0.083859577004744043</v>
+        <v>-0.083859577004722907</v>
       </c>
       <c r="E12">
-        <v>-0.012676813866952838</v>
+        <v>-0.012676813866940764</v>
       </c>
     </row>
     <row r="13">
@@ -445,16 +445,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.016150676588412714</v>
+        <v>0.016150676588414556</v>
       </c>
       <c r="C13">
-        <v>0.021360636385979584</v>
+        <v>0.021360636385978404</v>
       </c>
       <c r="D13">
-        <v>-0.025715791608755294</v>
+        <v>-0.025715791608751142</v>
       </c>
       <c r="E13">
-        <v>0.058017144785580718</v>
+        <v>0.058017144785580253</v>
       </c>
     </row>
     <row r="14">
@@ -462,16 +462,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.020022110171727284</v>
+        <v>-0.020022110171732471</v>
       </c>
       <c r="C14">
-        <v>0.0084972259526453903</v>
+        <v>0.0084972259526461553</v>
       </c>
       <c r="D14">
-        <v>-0.036676387767429555</v>
+        <v>-0.036676387767436237</v>
       </c>
       <c r="E14">
-        <v>-0.003367832576025017</v>
+        <v>-0.0033678325760287051</v>
       </c>
     </row>
     <row r="15">
@@ -479,16 +479,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.066286572345068115</v>
+        <v>-0.066286572345052391</v>
       </c>
       <c r="C15">
-        <v>0.0074782874376893042</v>
+        <v>0.0074782874376919141</v>
       </c>
       <c r="D15">
-        <v>-0.080943765085438518</v>
+        <v>-0.080943765085427916</v>
       </c>
       <c r="E15">
-        <v>-0.051629379604697712</v>
+        <v>-0.051629379604676874</v>
       </c>
     </row>
     <row r="16">
@@ -496,16 +496,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.024797161964519109</v>
+        <v>-0.024797161964515247</v>
       </c>
       <c r="C16">
-        <v>0.0088405616398932081</v>
+        <v>0.0088405616398958276</v>
       </c>
       <c r="D16">
-        <v>-0.042124370518576593</v>
+        <v>-0.042124370518577869</v>
       </c>
       <c r="E16">
-        <v>-0.007469953410461621</v>
+        <v>-0.0074699534104526247</v>
       </c>
     </row>
     <row r="17">
@@ -513,16 +513,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>-0.065531907956863825</v>
+        <v>-0.06553190795685139</v>
       </c>
       <c r="C17">
-        <v>0.0075938104889203993</v>
+        <v>0.0075938104889200818</v>
       </c>
       <c r="D17">
-        <v>-0.080415525057996665</v>
+        <v>-0.080415525057983606</v>
       </c>
       <c r="E17">
-        <v>-0.050648290855730985</v>
+        <v>-0.050648290855719168</v>
       </c>
     </row>
     <row r="18">
@@ -530,16 +530,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.037019759851850909</v>
+        <v>-0.037019759851836996</v>
       </c>
       <c r="C18">
-        <v>0.01612232949400463</v>
+        <v>0.016122329494004044</v>
       </c>
       <c r="D18">
-        <v>-0.06861917384892538</v>
+        <v>-0.068619173848910309</v>
       </c>
       <c r="E18">
-        <v>-0.0054203458547764441</v>
+        <v>-0.0054203458547636835</v>
       </c>
     </row>
     <row r="19">
@@ -547,16 +547,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.027959678832400567</v>
+        <v>-0.027959678832399398</v>
       </c>
       <c r="C19">
-        <v>0.019467607362296278</v>
+        <v>0.019467607362295233</v>
       </c>
       <c r="D19">
-        <v>-0.066115843741583524</v>
+        <v>-0.066115843741580305</v>
       </c>
       <c r="E19">
-        <v>0.010196486076782391</v>
+        <v>0.010196486076781513</v>
       </c>
     </row>
     <row r="20">
@@ -564,16 +564,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.011083983210499609</v>
+        <v>-0.011083983210502317</v>
       </c>
       <c r="C20">
-        <v>0.0077891839246906165</v>
+        <v>0.0077891839246928777</v>
       </c>
       <c r="D20">
-        <v>-0.026350522202015215</v>
+        <v>-0.026350522202022355</v>
       </c>
       <c r="E20">
-        <v>0.0041825557810159959</v>
+        <v>0.0041825557810177202</v>
       </c>
     </row>
     <row r="21">
@@ -581,16 +581,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.070089124927582833</v>
+        <v>-0.070089124927569121</v>
       </c>
       <c r="C21">
-        <v>0.0071058403262680763</v>
+        <v>0.0071058403262689671</v>
       </c>
       <c r="D21">
-        <v>-0.084016333812266891</v>
+        <v>-0.084016333812254929</v>
       </c>
       <c r="E21">
-        <v>-0.056161916042898767</v>
+        <v>-0.056161916042883314</v>
       </c>
     </row>
     <row r="22">
@@ -598,16 +598,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.028380489586525694</v>
+        <v>-0.028380489586533025</v>
       </c>
       <c r="C22">
-        <v>0.0085334649093827923</v>
+        <v>0.0085334649093834671</v>
       </c>
       <c r="D22">
-        <v>-0.04510579870109379</v>
+        <v>-0.045105798701102442</v>
       </c>
       <c r="E22">
-        <v>-0.011655180471957599</v>
+        <v>-0.011655180471963608</v>
       </c>
     </row>
     <row r="23">
@@ -615,16 +615,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.063928094798933965</v>
+        <v>-0.063928094798918561</v>
       </c>
       <c r="C23">
-        <v>0.0075435785768819983</v>
+        <v>0.0075435785768816601</v>
       </c>
       <c r="D23">
-        <v>-0.078713259015822698</v>
+        <v>-0.078713259015806641</v>
       </c>
       <c r="E23">
-        <v>-0.049142930582045226</v>
+        <v>-0.049142930582030488</v>
       </c>
     </row>
     <row r="24">
@@ -632,16 +632,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.030406493041552039</v>
+        <v>-0.030406493041538901</v>
       </c>
       <c r="C24">
-        <v>0.014598291968377666</v>
+        <v>0.014598291968377529</v>
       </c>
       <c r="D24">
-        <v>-0.059018826744970915</v>
+        <v>-0.059018826744957509</v>
       </c>
       <c r="E24">
-        <v>-0.0017941593381331604</v>
+        <v>-0.0017941593381202887</v>
       </c>
     </row>
     <row r="25">
@@ -649,16 +649,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04734530229281813</v>
+        <v>-0.04734530229281797</v>
       </c>
       <c r="C25">
-        <v>0.017791978737253002</v>
+        <v>0.017791978737248602</v>
       </c>
       <c r="D25">
-        <v>-0.082217264836818543</v>
+        <v>-0.082217264836809745</v>
       </c>
       <c r="E25">
-        <v>-0.012473339748817723</v>
+        <v>-0.012473339748826189</v>
       </c>
     </row>
     <row r="26">
@@ -666,16 +666,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.013595090787052034</v>
+        <v>-0.013595090787045164</v>
       </c>
       <c r="C26">
-        <v>0.0075277165437447049</v>
+        <v>0.0075277165437462696</v>
       </c>
       <c r="D26">
-        <v>-0.028349162489976969</v>
+        <v>-0.028349162489973167</v>
       </c>
       <c r="E26">
-        <v>0.0011589809158729023</v>
+        <v>0.0011589809158828387</v>
       </c>
     </row>
     <row r="27">
@@ -683,16 +683,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>-0.067622900942266834</v>
+        <v>-0.067622900942256384</v>
       </c>
       <c r="C27">
-        <v>0.0071253487272064341</v>
+        <v>0.0071253487272088722</v>
       </c>
       <c r="D27">
-        <v>-0.08158834563895899</v>
+        <v>-0.081588345638953313</v>
       </c>
       <c r="E27">
-        <v>-0.053657456245574685</v>
+        <v>-0.053657456245559454</v>
       </c>
     </row>
     <row r="28">
@@ -700,16 +700,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.019784649684860271</v>
+        <v>-0.019784649684876133</v>
       </c>
       <c r="C28">
-        <v>0.0084249212950634512</v>
+        <v>0.0084249212950659805</v>
       </c>
       <c r="D28">
-        <v>-0.036297216903705874</v>
+        <v>-0.036297216903726698</v>
       </c>
       <c r="E28">
-        <v>-0.0032720824660146669</v>
+        <v>-0.0032720824660255714</v>
       </c>
     </row>
     <row r="29">
@@ -717,16 +717,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.079258231145232699</v>
+        <v>-0.079258231145210772</v>
       </c>
       <c r="C29">
-        <v>0.0077176035041186999</v>
+        <v>0.0077176035041199619</v>
       </c>
       <c r="D29">
-        <v>-0.094384478456942228</v>
+        <v>-0.094384478456922771</v>
       </c>
       <c r="E29">
-        <v>-0.064131983833523171</v>
+        <v>-0.064131983833498774</v>
       </c>
     </row>
     <row r="30">
@@ -734,16 +734,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.025964731052898187</v>
+        <v>-0.025964731052882394</v>
       </c>
       <c r="C30">
-        <v>0.013116820791995226</v>
+        <v>0.013116820791997401</v>
       </c>
       <c r="D30">
-        <v>-0.05167341357832507</v>
+        <v>-0.051673413578313537</v>
       </c>
       <c r="E30">
-        <v>-0.00025604852747130452</v>
+        <v>-0.00025604852745124765</v>
       </c>
     </row>
     <row r="31">
@@ -751,16 +751,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.078818719982464702</v>
+        <v>-0.078818719982463648</v>
       </c>
       <c r="C31">
-        <v>0.017446263706602974</v>
+        <v>0.017446263706603255</v>
       </c>
       <c r="D31">
-        <v>-0.11301308720231584</v>
+        <v>-0.11301308720231534</v>
       </c>
       <c r="E31">
-        <v>-0.044624352762613562</v>
+        <v>-0.044624352762611952</v>
       </c>
     </row>
     <row r="32">
@@ -768,16 +768,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0086300232839599325</v>
+        <v>-0.0086300232839589836</v>
       </c>
       <c r="C32">
-        <v>0.0072077230125065193</v>
+        <v>0.0072077230125088083</v>
       </c>
       <c r="D32">
-        <v>-0.022756918408579258</v>
+        <v>-0.022756918408582794</v>
       </c>
       <c r="E32">
-        <v>0.0054968718406593932</v>
+        <v>0.0054968718406648281</v>
       </c>
     </row>
     <row r="33">
@@ -785,16 +785,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.064700898001792462</v>
+        <v>-0.064700898001784607</v>
       </c>
       <c r="C33">
-        <v>0.0072379457384320689</v>
+        <v>0.0072379457384334203</v>
       </c>
       <c r="D33">
-        <v>-0.078887029066757416</v>
+        <v>-0.078887029066752212</v>
       </c>
       <c r="E33">
-        <v>-0.050514766936827507</v>
+        <v>-0.050514766936817002</v>
       </c>
     </row>
     <row r="34">
@@ -802,16 +802,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.0066115788650576131</v>
+        <v>-0.006611578865082751</v>
       </c>
       <c r="C34">
-        <v>0.0084317891100178285</v>
+        <v>0.0084317891100180627</v>
       </c>
       <c r="D34">
-        <v>-0.023137606774170698</v>
+        <v>-0.023137606774196295</v>
       </c>
       <c r="E34">
-        <v>0.0099144490440554733</v>
+        <v>0.0099144490440307917</v>
       </c>
     </row>
     <row r="35">
@@ -819,16 +819,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.073531187924195246</v>
+        <v>-0.073531187924174984</v>
       </c>
       <c r="C35">
-        <v>0.0078301170021534468</v>
+        <v>0.0078301170021535024</v>
       </c>
       <c r="D35">
-        <v>-0.088877957966344456</v>
+        <v>-0.088877957966324306</v>
       </c>
       <c r="E35">
-        <v>-0.058184417882046029</v>
+        <v>-0.058184417882025663</v>
       </c>
     </row>
     <row r="36">
@@ -836,16 +836,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.0372424740096194</v>
+        <v>-0.037242474009604669</v>
       </c>
       <c r="C36">
-        <v>0.012560906515764041</v>
+        <v>0.012560906515764499</v>
       </c>
       <c r="D36">
-        <v>-0.061861576684439354</v>
+        <v>-0.061861576684425518</v>
       </c>
       <c r="E36">
-        <v>-0.012623371334799443</v>
+        <v>-0.012623371334783817</v>
       </c>
     </row>
     <row r="37">
@@ -853,16 +853,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>-0.090188145368443787</v>
+        <v>-0.09018814536844208</v>
       </c>
       <c r="C37">
-        <v>0.017026081160651105</v>
+        <v>0.017026081160648576</v>
       </c>
       <c r="D37">
-        <v>-0.12355896225584109</v>
+        <v>-0.12355896225583443</v>
       </c>
       <c r="E37">
-        <v>-0.056817328481046481</v>
+        <v>-0.056817328481049728</v>
       </c>
     </row>
     <row r="38">
@@ -870,16 +870,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.013934357696854098</v>
+        <v>-0.013934357696850233</v>
       </c>
       <c r="C38">
-        <v>0.007383193046836491</v>
+        <v>0.0073831930468315687</v>
       </c>
       <c r="D38">
-        <v>-0.028405168197826215</v>
+        <v>-0.028405168197812705</v>
       </c>
       <c r="E38">
-        <v>0.0005364528041180202</v>
+        <v>0.00053645280411223836</v>
       </c>
     </row>
     <row r="39">
@@ -887,16 +887,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.050725815271557291</v>
+        <v>-0.050725815271552968</v>
       </c>
       <c r="C39">
-        <v>0.0077317588051747307</v>
+        <v>0.0077317588051765895</v>
       </c>
       <c r="D39">
-        <v>-0.065879803397014824</v>
+        <v>-0.065879803397014144</v>
       </c>
       <c r="E39">
-        <v>-0.035571827146099751</v>
+        <v>-0.035571827146091785</v>
       </c>
     </row>
     <row r="40">
@@ -904,16 +904,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.0039969513012867199</v>
+        <v>0.0039969513012583632</v>
       </c>
       <c r="C40">
-        <v>0.0088144804806432799</v>
+        <v>0.0088144804806438541</v>
       </c>
       <c r="D40">
-        <v>-0.013279139042857969</v>
+        <v>-0.013279139042887453</v>
       </c>
       <c r="E40">
-        <v>0.021273041645431409</v>
+        <v>0.021273041645404181</v>
       </c>
     </row>
     <row r="41">
@@ -921,16 +921,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.046771638389626731</v>
+        <v>-0.046771638389619265</v>
       </c>
       <c r="C41">
-        <v>0.00835129193479036</v>
+        <v>0.0083512919347917061</v>
       </c>
       <c r="D41">
-        <v>-0.063139894041851968</v>
+        <v>-0.063139894041847139</v>
       </c>
       <c r="E41">
-        <v>-0.030403382737401497</v>
+        <v>-0.030403382737391394</v>
       </c>
     </row>
     <row r="42">
@@ -938,16 +938,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.055030080468362344</v>
+        <v>-0.055030080468346843</v>
       </c>
       <c r="C42">
-        <v>0.013248492877561276</v>
+        <v>0.01324849287756223</v>
       </c>
       <c r="D42">
-        <v>-0.080996837408234545</v>
+        <v>-0.080996837408220917</v>
       </c>
       <c r="E42">
-        <v>-0.029063323528490136</v>
+        <v>-0.029063323528472764</v>
       </c>
     </row>
     <row r="43">
@@ -955,16 +955,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.098861334657152716</v>
+        <v>-0.098861334657148442</v>
       </c>
       <c r="C43">
-        <v>0.017762859919433199</v>
+        <v>0.017762859919436227</v>
       </c>
       <c r="D43">
-        <v>-0.13367622483504177</v>
+        <v>-0.13367622483504343</v>
       </c>
       <c r="E43">
-        <v>-0.064046444479263664</v>
+        <v>-0.06404644447925345</v>
       </c>
     </row>
     <row r="44">
@@ -972,16 +972,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.011023475550560212</v>
+        <v>-0.011023475550541284</v>
       </c>
       <c r="C44">
-        <v>0.0079077675691381268</v>
+        <v>0.0079077675691402796</v>
       </c>
       <c r="D44">
-        <v>-0.026522434504066359</v>
+        <v>-0.026522434504051652</v>
       </c>
       <c r="E44">
-        <v>0.0044754834029459359</v>
+        <v>0.004475483402969084</v>
       </c>
     </row>
     <row r="45">
@@ -989,16 +989,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>-0.049698135650038035</v>
+        <v>-0.049698135650039346</v>
       </c>
       <c r="C45">
-        <v>0.0082645497908600488</v>
+        <v>0.0082645497908597747</v>
       </c>
       <c r="D45">
-        <v>-0.065896376250756755</v>
+        <v>-0.065896376250757532</v>
       </c>
       <c r="E45">
-        <v>-0.033499895049319314</v>
+        <v>-0.033499895049321167</v>
       </c>
     </row>
     <row r="46">
@@ -1006,16 +1006,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0024231120322995548</v>
+        <v>0.0024231120322686542</v>
       </c>
       <c r="C46">
-        <v>0.0093996456208355738</v>
+        <v>0.0093996456208320558</v>
       </c>
       <c r="D46">
-        <v>-0.01599988264164727</v>
+        <v>-0.015999882641671275</v>
       </c>
       <c r="E46">
-        <v>0.020846106706246377</v>
+        <v>0.020846106706208584</v>
       </c>
     </row>
     <row r="47">
@@ -1023,16 +1023,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.038128205949044369</v>
+        <v>-0.038128205949035265</v>
       </c>
       <c r="C47">
-        <v>0.0092615916107218043</v>
+        <v>0.0092615916107210722</v>
       </c>
       <c r="D47">
-        <v>-0.056280618822945952</v>
+        <v>-0.056280618822935412</v>
       </c>
       <c r="E47">
-        <v>-0.01997579307514279</v>
+        <v>-0.019975793075135119</v>
       </c>
     </row>
     <row r="48">
@@ -1040,16 +1040,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.048177651543350519</v>
+        <v>-0.04817765154332769</v>
       </c>
       <c r="C48">
-        <v>0.014583565724682104</v>
+        <v>0.014583565724684344</v>
       </c>
       <c r="D48">
-        <v>-0.076761122130472786</v>
+        <v>-0.076761122130454343</v>
       </c>
       <c r="E48">
-        <v>-0.019594180956228259</v>
+        <v>-0.019594180956201041</v>
       </c>
     </row>
     <row r="49">
@@ -1057,16 +1057,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1185379612631411</v>
+        <v>-0.1185379612631404</v>
       </c>
       <c r="C49">
-        <v>0.019008240172958345</v>
+        <v>0.019008240172957457</v>
       </c>
       <c r="D49">
-        <v>-0.15579377463430236</v>
+        <v>-0.15579377463429991</v>
       </c>
       <c r="E49">
-        <v>-0.08128214789197985</v>
+        <v>-0.081282147891980877</v>
       </c>
     </row>
     <row r="50">
@@ -1074,16 +1074,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0046046332684688074</v>
+        <v>0.0046046332684858285</v>
       </c>
       <c r="C50">
-        <v>0.0090043589285588588</v>
+        <v>0.0090043589285595492</v>
       </c>
       <c r="D50">
-        <v>-0.01304360793439964</v>
+        <v>-0.013043607934383972</v>
       </c>
       <c r="E50">
-        <v>0.022252874471337253</v>
+        <v>0.022252874471355627</v>
       </c>
     </row>
     <row r="51">
@@ -1091,16 +1091,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.041038592905948877</v>
+        <v>-0.041038592905962117</v>
       </c>
       <c r="C51">
-        <v>0.01017104613663708</v>
+        <v>0.010171046136637654</v>
       </c>
       <c r="D51">
-        <v>-0.060973502447477942</v>
+        <v>-0.060973502447492306</v>
       </c>
       <c r="E51">
-        <v>-0.021103683364419815</v>
+        <v>-0.021103683364431931</v>
       </c>
     </row>
     <row r="52">
@@ -1108,16 +1108,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.0061414941598251982</v>
+        <v>0.0061414941597962751</v>
       </c>
       <c r="C52">
-        <v>0.010038002144668339</v>
+        <v>0.010038002144667777</v>
       </c>
       <c r="D52">
-        <v>-0.013532658197405092</v>
+        <v>-0.013532658197432917</v>
       </c>
       <c r="E52">
-        <v>0.02581564651705549</v>
+        <v>0.025815646517025465</v>
       </c>
     </row>
     <row r="53">
@@ -1125,16 +1125,16 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.02715443262810913</v>
+        <v>-0.027154432628097691</v>
       </c>
       <c r="C53">
-        <v>0.011430451005978386</v>
+        <v>0.011430451005981007</v>
       </c>
       <c r="D53">
-        <v>-0.049557738098328682</v>
+        <v>-0.049557738098322382</v>
       </c>
       <c r="E53">
-        <v>-0.0047511271578895772</v>
+        <v>-0.0047511271578730002</v>
       </c>
     </row>
     <row r="54">
@@ -1142,16 +1142,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.021546144112619653</v>
+        <v>-0.021546144112600359</v>
       </c>
       <c r="C54">
-        <v>0.018495060334074394</v>
+        <v>0.018495060334079733</v>
       </c>
       <c r="D54">
-        <v>-0.057796058780014259</v>
+        <v>-0.057796058780005433</v>
       </c>
       <c r="E54">
-        <v>0.014703770554774953</v>
+        <v>0.014703770554804711</v>
       </c>
     </row>
     <row r="55">
@@ -1159,16 +1159,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.083483300783438658</v>
+        <v>-0.083483300783436326</v>
       </c>
       <c r="C55">
-        <v>0.022355403128820988</v>
+        <v>0.022355403128821304</v>
       </c>
       <c r="D55">
-        <v>-0.12729949414095376</v>
+        <v>-0.12729949414095204</v>
       </c>
       <c r="E55">
-        <v>-0.039667107425923553</v>
+        <v>-0.039667107425920604</v>
       </c>
     </row>
   </sheetData>

--- a/linreg/rifdid_coefs-sltt_blk0.xlsx
+++ b/linreg/rifdid_coefs-sltt_blk0.xlsx
@@ -258,16 +258,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.049002304268517725</v>
+        <v>-0.053326207839693759</v>
       </c>
       <c r="C2">
-        <v>0.0095999539954200637</v>
+        <v>0.0098895021922550969</v>
       </c>
       <c r="D2">
-        <v>-0.0678178918069334</v>
+        <v>-0.072709300708240457</v>
       </c>
       <c r="E2">
-        <v>-0.030186716730102054</v>
+        <v>-0.033943114971147062</v>
       </c>
     </row>
     <row r="3">
@@ -275,16 +275,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.042550502526166926</v>
+        <v>-0.041187039593333676</v>
       </c>
       <c r="C3">
-        <v>0.0074736633974653317</v>
+        <v>0.0077007084338397798</v>
       </c>
       <c r="D3">
-        <v>-0.057198632302674718</v>
+        <v>-0.056280170492483933</v>
       </c>
       <c r="E3">
-        <v>-0.027902372749659135</v>
+        <v>-0.026093908694183418</v>
       </c>
     </row>
     <row r="4">
@@ -292,16 +292,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.052738038293787738</v>
+        <v>-0.058378675286295839</v>
       </c>
       <c r="C4">
-        <v>0.010006936334983401</v>
+        <v>0.010217630273707135</v>
       </c>
       <c r="D4">
-        <v>-0.072351302691040176</v>
+        <v>-0.078404893543882775</v>
       </c>
       <c r="E4">
-        <v>-0.033124773896535301</v>
+        <v>-0.03835245702870891</v>
       </c>
     </row>
     <row r="5">
@@ -309,16 +309,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-0.046909189547437821</v>
+        <v>-0.052459253855981908</v>
       </c>
       <c r="C5">
-        <v>0.0076626569638577067</v>
+        <v>0.0078773977526592313</v>
       </c>
       <c r="D5">
-        <v>-0.061927743459704504</v>
+        <v>-0.067898693138367827</v>
       </c>
       <c r="E5">
-        <v>-0.031890635635171138</v>
+        <v>-0.037019814573595981</v>
       </c>
     </row>
     <row r="6">
@@ -326,16 +326,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.039817793984057145</v>
+        <v>-0.050512943355998555</v>
       </c>
       <c r="C6">
-        <v>0.024262149991851389</v>
+        <v>0.024905025318223351</v>
       </c>
       <c r="D6">
-        <v>-0.08737107853494841</v>
+        <v>-0.099326259527633853</v>
       </c>
       <c r="E6">
-        <v>0.007735490566834112</v>
+        <v>-0.0016996271843632491</v>
       </c>
     </row>
     <row r="7">
@@ -343,16 +343,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.037608068929054515</v>
+        <v>0.0370090797771448</v>
       </c>
       <c r="C7">
-        <v>0.02757857393622663</v>
+        <v>0.028141725314076091</v>
       </c>
       <c r="D7">
-        <v>-0.016445446507504832</v>
+        <v>-0.018148216385693437</v>
       </c>
       <c r="E7">
-        <v>0.091661584365613863</v>
+        <v>0.092166375939983031</v>
       </c>
     </row>
     <row r="8">
@@ -360,16 +360,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.01629446068438364</v>
+        <v>-0.023886978326183205</v>
       </c>
       <c r="C8">
-        <v>0.0091975464660075668</v>
+        <v>0.0094044662895059524</v>
       </c>
       <c r="D8">
-        <v>-0.034321342974900138</v>
+        <v>-0.042319417080417782</v>
       </c>
       <c r="E8">
-        <v>0.0017324216061328605</v>
+        <v>-0.0054545395719486287</v>
       </c>
     </row>
     <row r="9">
@@ -377,16 +377,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08221300507144863</v>
+        <v>-0.08173152237329355</v>
       </c>
       <c r="C9">
-        <v>0.0074916495532866157</v>
+        <v>0.0076977224369826321</v>
       </c>
       <c r="D9">
-        <v>-0.096896387110553636</v>
+        <v>-0.09681880081850186</v>
       </c>
       <c r="E9">
-        <v>-0.067529623032343625</v>
+        <v>-0.066644243928085239</v>
       </c>
     </row>
     <row r="10">
@@ -394,16 +394,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.023602082905083439</v>
+        <v>-0.02586314239595934</v>
       </c>
       <c r="C10">
-        <v>0.0097338869800464231</v>
+        <v>0.009961030846317255</v>
       </c>
       <c r="D10">
-        <v>-0.042680179593398204</v>
+        <v>-0.045386434241058538</v>
       </c>
       <c r="E10">
-        <v>-0.0045239862167686697</v>
+        <v>-0.0063398505508601433</v>
       </c>
     </row>
     <row r="11">
@@ -411,16 +411,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.078906544728586658</v>
+        <v>-0.090809535674349504</v>
       </c>
       <c r="C11">
-        <v>0.0074991014693702139</v>
+        <v>0.0077083239853231169</v>
       </c>
       <c r="D11">
-        <v>-0.093604535287542118</v>
+        <v>-0.10591759595988981</v>
       </c>
       <c r="E11">
-        <v>-0.064208554169631199</v>
+        <v>-0.075701475388809197</v>
       </c>
     </row>
     <row r="12">
@@ -428,16 +428,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.048268195435831836</v>
+        <v>-0.049565143349355759</v>
       </c>
       <c r="C12">
-        <v>0.018159070318634084</v>
+        <v>0.018599448757833974</v>
       </c>
       <c r="D12">
-        <v>-0.083859577004722907</v>
+        <v>-0.086019664524644657</v>
       </c>
       <c r="E12">
-        <v>-0.012676813866940764</v>
+        <v>-0.01311062217406686</v>
       </c>
     </row>
     <row r="13">
@@ -445,16 +445,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.016150676588414556</v>
+        <v>0.01051621079450238</v>
       </c>
       <c r="C13">
-        <v>0.021360636385978404</v>
+        <v>0.021832981557853202</v>
       </c>
       <c r="D13">
-        <v>-0.025715791608751142</v>
+        <v>-0.032276056433759803</v>
       </c>
       <c r="E13">
-        <v>0.058017144785580253</v>
+        <v>0.05330847802276456</v>
       </c>
     </row>
     <row r="14">
@@ -462,16 +462,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.020022110171732471</v>
+        <v>-0.021640119872704051</v>
       </c>
       <c r="C14">
-        <v>0.0084972259526461553</v>
+        <v>0.0086574912432216856</v>
       </c>
       <c r="D14">
-        <v>-0.036676387767436237</v>
+        <v>-0.038608512569700902</v>
       </c>
       <c r="E14">
-        <v>-0.0033678325760287051</v>
+        <v>-0.0046717271757071993</v>
       </c>
     </row>
     <row r="15">
@@ -479,16 +479,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.066286572345052391</v>
+        <v>-0.069041977875357499</v>
       </c>
       <c r="C15">
-        <v>0.0074782874376919141</v>
+        <v>0.0076426364996973715</v>
       </c>
       <c r="D15">
-        <v>-0.080943765085427916</v>
+        <v>-0.084021289726415177</v>
       </c>
       <c r="E15">
-        <v>-0.051629379604676874</v>
+        <v>-0.054062666024299828</v>
       </c>
     </row>
     <row r="16">
@@ -496,16 +496,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.024797161964515247</v>
+        <v>-0.024263410687221175</v>
       </c>
       <c r="C16">
-        <v>0.0088405616398958276</v>
+        <v>0.0090422178669534274</v>
       </c>
       <c r="D16">
-        <v>-0.042124370518577869</v>
+        <v>-0.041985859404340589</v>
       </c>
       <c r="E16">
-        <v>-0.0074699534104526247</v>
+        <v>-0.0065409619701017642</v>
       </c>
     </row>
     <row r="17">
@@ -513,16 +513,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>-0.06553190795685139</v>
+        <v>-0.071817227313649062</v>
       </c>
       <c r="C17">
-        <v>0.0075938104889200818</v>
+        <v>0.0077702133958430508</v>
       </c>
       <c r="D17">
-        <v>-0.080415525057983606</v>
+        <v>-0.087046588798639732</v>
       </c>
       <c r="E17">
-        <v>-0.050648290855719168</v>
+        <v>-0.056587865828658393</v>
       </c>
     </row>
     <row r="18">
@@ -530,16 +530,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.037019759851836996</v>
+        <v>-0.0421548234121258</v>
       </c>
       <c r="C18">
-        <v>0.016122329494004044</v>
+        <v>0.016507501144439492</v>
       </c>
       <c r="D18">
-        <v>-0.068619173848910309</v>
+        <v>-0.074509172073540408</v>
       </c>
       <c r="E18">
-        <v>-0.0054203458547636835</v>
+        <v>-0.0098004747507111911</v>
       </c>
     </row>
     <row r="19">
@@ -547,16 +547,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.027959678832399398</v>
+        <v>-0.033222040123466356</v>
       </c>
       <c r="C19">
-        <v>0.019467607362295233</v>
+        <v>0.019835228123497556</v>
       </c>
       <c r="D19">
-        <v>-0.066115843741580305</v>
+        <v>-0.072098745082205359</v>
       </c>
       <c r="E19">
-        <v>0.010196486076781513</v>
+        <v>0.0056546648352726464</v>
       </c>
     </row>
     <row r="20">
@@ -564,16 +564,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.011083983210502317</v>
+        <v>-0.01327167322096824</v>
       </c>
       <c r="C20">
-        <v>0.0077891839246928777</v>
+        <v>0.0079545266249021907</v>
       </c>
       <c r="D20">
-        <v>-0.026350522202022355</v>
+        <v>-0.028862278824610677</v>
       </c>
       <c r="E20">
-        <v>0.0041825557810177202</v>
+        <v>0.0023189323826741971</v>
       </c>
     </row>
     <row r="21">
@@ -581,16 +581,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.070089124927569121</v>
+        <v>-0.077285144174161158</v>
       </c>
       <c r="C21">
-        <v>0.0071058403262689671</v>
+        <v>0.007258901340889609</v>
       </c>
       <c r="D21">
-        <v>-0.084016333812254929</v>
+        <v>-0.091512347952013434</v>
       </c>
       <c r="E21">
-        <v>-0.056161916042883314</v>
+        <v>-0.063057940396308881</v>
       </c>
     </row>
     <row r="22">
@@ -598,16 +598,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.028380489586533025</v>
+        <v>-0.027581476569683367</v>
       </c>
       <c r="C22">
-        <v>0.0085334649093834671</v>
+        <v>0.0087244249916838112</v>
       </c>
       <c r="D22">
-        <v>-0.045105798701102442</v>
+        <v>-0.044681061735238156</v>
       </c>
       <c r="E22">
-        <v>-0.011655180471963608</v>
+        <v>-0.010481891404128581</v>
       </c>
     </row>
     <row r="23">
@@ -615,16 +615,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.063928094798918561</v>
+        <v>-0.066591440245256803</v>
       </c>
       <c r="C23">
-        <v>0.0075435785768816601</v>
+        <v>0.0077012984006409766</v>
       </c>
       <c r="D23">
-        <v>-0.078713259015806641</v>
+        <v>-0.081685730616984323</v>
       </c>
       <c r="E23">
-        <v>-0.049142930582030488</v>
+        <v>-0.05149714987352929</v>
       </c>
     </row>
     <row r="24">
@@ -632,16 +632,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.030406493041538901</v>
+        <v>-0.031396654661652798</v>
       </c>
       <c r="C24">
-        <v>0.014598291968377529</v>
+        <v>0.014929552092987632</v>
       </c>
       <c r="D24">
-        <v>-0.059018826744957509</v>
+        <v>-0.060658256981031305</v>
       </c>
       <c r="E24">
-        <v>-0.0017941593381202887</v>
+        <v>-0.0021350523422742906</v>
       </c>
     </row>
     <row r="25">
@@ -649,16 +649,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04734530229281797</v>
+        <v>-0.051277358997824318</v>
       </c>
       <c r="C25">
-        <v>0.017791978737248602</v>
+        <v>0.018155816797564672</v>
       </c>
       <c r="D25">
-        <v>-0.082217264836809745</v>
+        <v>-0.086862446728057013</v>
       </c>
       <c r="E25">
-        <v>-0.012473339748826189</v>
+        <v>-0.015692271267591623</v>
       </c>
     </row>
     <row r="26">
@@ -666,16 +666,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.013595090787045164</v>
+        <v>-0.013361744029754888</v>
       </c>
       <c r="C26">
-        <v>0.0075277165437462696</v>
+        <v>0.007697839655187712</v>
       </c>
       <c r="D26">
-        <v>-0.028349162489973167</v>
+        <v>-0.028449251775143347</v>
       </c>
       <c r="E26">
-        <v>0.0011589809158828387</v>
+        <v>0.0017257637156335697</v>
       </c>
     </row>
     <row r="27">
@@ -683,16 +683,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>-0.067622900942256384</v>
+        <v>-0.078296331066685182</v>
       </c>
       <c r="C27">
-        <v>0.0071253487272088722</v>
+        <v>0.007267071496924511</v>
       </c>
       <c r="D27">
-        <v>-0.081588345638953313</v>
+        <v>-0.092539548077029077</v>
       </c>
       <c r="E27">
-        <v>-0.053657456245559454</v>
+        <v>-0.064053114056341287</v>
       </c>
     </row>
     <row r="28">
@@ -700,16 +700,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.019784649684876133</v>
+        <v>-0.02333360728056182</v>
       </c>
       <c r="C28">
-        <v>0.0084249212950659805</v>
+        <v>0.0086087134499763292</v>
       </c>
       <c r="D28">
-        <v>-0.036297216903726698</v>
+        <v>-0.040206401641685277</v>
       </c>
       <c r="E28">
-        <v>-0.0032720824660255714</v>
+        <v>-0.0064608129194383586</v>
       </c>
     </row>
     <row r="29">
@@ -717,16 +717,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.079258231145210772</v>
+        <v>-0.08507995722579037</v>
       </c>
       <c r="C29">
-        <v>0.0077176035041199619</v>
+        <v>0.0078734799221383961</v>
       </c>
       <c r="D29">
-        <v>-0.094384478456922771</v>
+        <v>-0.10051171768982227</v>
       </c>
       <c r="E29">
-        <v>-0.064131983833498774</v>
+        <v>-0.069648196761758471</v>
       </c>
     </row>
     <row r="30">
@@ -734,16 +734,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.025964731052882394</v>
+        <v>-0.030834103305568152</v>
       </c>
       <c r="C30">
-        <v>0.013116820791997401</v>
+        <v>0.01342117104248618</v>
       </c>
       <c r="D30">
-        <v>-0.051673413578313537</v>
+        <v>-0.057139311074664662</v>
       </c>
       <c r="E30">
-        <v>-0.00025604852745124765</v>
+        <v>-0.0045288955364716429</v>
       </c>
     </row>
     <row r="31">
@@ -751,16 +751,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.078818719982463648</v>
+        <v>-0.084187766614104625</v>
       </c>
       <c r="C31">
-        <v>0.017446263706603255</v>
+        <v>0.017822118516844333</v>
       </c>
       <c r="D31">
-        <v>-0.11301308720231534</v>
+        <v>-0.11911881147051553</v>
       </c>
       <c r="E31">
-        <v>-0.044624352762611952</v>
+        <v>-0.049256721757693717</v>
       </c>
     </row>
     <row r="32">
@@ -768,16 +768,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0086300232839589836</v>
+        <v>-0.0094472520661687924</v>
       </c>
       <c r="C32">
-        <v>0.0072077230125088083</v>
+        <v>0.007362424956916783</v>
       </c>
       <c r="D32">
-        <v>-0.022756918408582794</v>
+        <v>-0.023877358243746032</v>
       </c>
       <c r="E32">
-        <v>0.0054968718406648281</v>
+        <v>0.0049828541114084451</v>
       </c>
     </row>
     <row r="33">
@@ -785,16 +785,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.064700898001784607</v>
+        <v>-0.066229997368756441</v>
       </c>
       <c r="C33">
-        <v>0.0072379457384334203</v>
+        <v>0.0073908098799308286</v>
       </c>
       <c r="D33">
-        <v>-0.078887029066752212</v>
+        <v>-0.08071573747006125</v>
       </c>
       <c r="E33">
-        <v>-0.050514766936817002</v>
+        <v>-0.051744257267451639</v>
       </c>
     </row>
     <row r="34">
@@ -802,16 +802,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.006611578865082751</v>
+        <v>-0.0087896585815980983</v>
       </c>
       <c r="C34">
-        <v>0.0084317891100180627</v>
+        <v>0.0086049086578912238</v>
       </c>
       <c r="D34">
-        <v>-0.023137606774196295</v>
+        <v>-0.025654995675754567</v>
       </c>
       <c r="E34">
-        <v>0.0099144490440307917</v>
+        <v>0.0080756785125583701</v>
       </c>
     </row>
     <row r="35">
@@ -819,16 +819,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.073531187924174984</v>
+        <v>-0.074693140079908002</v>
       </c>
       <c r="C35">
-        <v>0.0078301170021535024</v>
+        <v>0.0079918128719636307</v>
       </c>
       <c r="D35">
-        <v>-0.088877957966324306</v>
+        <v>-0.090356829215221673</v>
       </c>
       <c r="E35">
-        <v>-0.058184417882025663</v>
+        <v>-0.059029450944594331</v>
       </c>
     </row>
     <row r="36">
@@ -836,16 +836,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.037242474009604669</v>
+        <v>-0.039565700732364255</v>
       </c>
       <c r="C36">
-        <v>0.012560906515764499</v>
+        <v>0.012870532941952196</v>
       </c>
       <c r="D36">
-        <v>-0.061861576684425518</v>
+        <v>-0.064791669618782466</v>
       </c>
       <c r="E36">
-        <v>-0.012623371334783817</v>
+        <v>-0.014339731845946047</v>
       </c>
     </row>
     <row r="37">
@@ -853,16 +853,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>-0.09018814536844208</v>
+        <v>-0.09022031964160214</v>
       </c>
       <c r="C37">
-        <v>0.017026081160648576</v>
+        <v>0.017351420196396031</v>
       </c>
       <c r="D37">
-        <v>-0.12355896225583443</v>
+        <v>-0.12422880390961402</v>
       </c>
       <c r="E37">
-        <v>-0.056817328481049728</v>
+        <v>-0.056211835373590251</v>
       </c>
     </row>
     <row r="38">
@@ -870,16 +870,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.013934357696850233</v>
+        <v>-0.014491589244579576</v>
       </c>
       <c r="C38">
-        <v>0.0073831930468315687</v>
+        <v>0.0075417642004547416</v>
       </c>
       <c r="D38">
-        <v>-0.028405168197812705</v>
+        <v>-0.029273194329270003</v>
       </c>
       <c r="E38">
-        <v>0.00053645280411223836</v>
+        <v>0.00029001584011085178</v>
       </c>
     </row>
     <row r="39">
@@ -887,16 +887,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.050725815271552968</v>
+        <v>-0.050236714579246944</v>
       </c>
       <c r="C39">
-        <v>0.0077317588051765895</v>
+        <v>0.0078859159960621324</v>
       </c>
       <c r="D39">
-        <v>-0.065879803397014144</v>
+        <v>-0.065692846104138419</v>
       </c>
       <c r="E39">
-        <v>-0.035571827146091785</v>
+        <v>-0.034780583054355468</v>
       </c>
     </row>
     <row r="40">
@@ -904,16 +904,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.0039969513012583632</v>
+        <v>0.0024266809595758642</v>
       </c>
       <c r="C40">
-        <v>0.0088144804806438541</v>
+        <v>0.0090176245459179273</v>
       </c>
       <c r="D40">
-        <v>-0.013279139042887453</v>
+        <v>-0.015247565659645836</v>
       </c>
       <c r="E40">
-        <v>0.021273041645404181</v>
+        <v>0.020100927578797563</v>
       </c>
     </row>
     <row r="41">
@@ -921,16 +921,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.046771638389619265</v>
+        <v>-0.046932986422586594</v>
       </c>
       <c r="C41">
-        <v>0.0083512919347917061</v>
+        <v>0.0085280384961990904</v>
       </c>
       <c r="D41">
-        <v>-0.063139894041847139</v>
+        <v>-0.063647660061538935</v>
       </c>
       <c r="E41">
-        <v>-0.030403382737391394</v>
+        <v>-0.030218312783634255</v>
       </c>
     </row>
     <row r="42">
@@ -938,16 +938,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.055030080468346843</v>
+        <v>-0.05647708909809137</v>
       </c>
       <c r="C42">
-        <v>0.01324849287756223</v>
+        <v>0.013543062692083942</v>
       </c>
       <c r="D42">
-        <v>-0.080996837408220917</v>
+        <v>-0.083021201889546717</v>
       </c>
       <c r="E42">
-        <v>-0.029063323528472764</v>
+        <v>-0.029932976306636019</v>
       </c>
     </row>
     <row r="43">
@@ -955,16 +955,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.098861334657148442</v>
+        <v>-0.10267360741643089</v>
       </c>
       <c r="C43">
-        <v>0.017762859919436227</v>
+        <v>0.018127928809503098</v>
       </c>
       <c r="D43">
-        <v>-0.13367622483504343</v>
+        <v>-0.13820403517113861</v>
       </c>
       <c r="E43">
-        <v>-0.06404644447925345</v>
+        <v>-0.067143179661723174</v>
       </c>
     </row>
     <row r="44">
@@ -972,16 +972,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.011023475550541284</v>
+        <v>-0.0092920511639559174</v>
       </c>
       <c r="C44">
-        <v>0.0079077675691402796</v>
+        <v>0.0080779049838059693</v>
       </c>
       <c r="D44">
-        <v>-0.026522434504051652</v>
+        <v>-0.025124474216253523</v>
       </c>
       <c r="E44">
-        <v>0.004475483402969084</v>
+        <v>0.0065403718883416881</v>
       </c>
     </row>
     <row r="45">
@@ -989,16 +989,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>-0.049698135650039346</v>
+        <v>-0.050968672458003968</v>
       </c>
       <c r="C45">
-        <v>0.0082645497908597747</v>
+        <v>0.0084407287148684142</v>
       </c>
       <c r="D45">
-        <v>-0.065896376250757532</v>
+        <v>-0.06751221835020986</v>
       </c>
       <c r="E45">
-        <v>-0.033499895049321167</v>
+        <v>-0.034425126565798075</v>
       </c>
     </row>
     <row r="46">
@@ -1006,16 +1006,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0024231120322686542</v>
+        <v>0.0040341633543072341</v>
       </c>
       <c r="C46">
-        <v>0.0093996456208320558</v>
+        <v>0.0096118876912200182</v>
       </c>
       <c r="D46">
-        <v>-0.015999882641671275</v>
+        <v>-0.014804819425008654</v>
       </c>
       <c r="E46">
-        <v>0.020846106706208584</v>
+        <v>0.02287314613362312</v>
       </c>
     </row>
     <row r="47">
@@ -1023,16 +1023,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.038128205949035265</v>
+        <v>-0.040943553074369844</v>
       </c>
       <c r="C47">
-        <v>0.0092615916107210722</v>
+        <v>0.0094625093095081856</v>
       </c>
       <c r="D47">
-        <v>-0.056280618822935412</v>
+        <v>-0.059489758627319686</v>
       </c>
       <c r="E47">
-        <v>-0.019975793075135119</v>
+        <v>-0.022397347521420006</v>
       </c>
     </row>
     <row r="48">
@@ -1040,16 +1040,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04817765154332769</v>
+        <v>-0.048412164449430049</v>
       </c>
       <c r="C48">
-        <v>0.014583565724684344</v>
+        <v>0.01491585751659393</v>
       </c>
       <c r="D48">
-        <v>-0.076761122130454343</v>
+        <v>-0.077646925692407276</v>
       </c>
       <c r="E48">
-        <v>-0.019594180956201041</v>
+        <v>-0.019177403206452826</v>
       </c>
     </row>
     <row r="49">
@@ -1057,16 +1057,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1185379612631404</v>
+        <v>-0.11867503693895905</v>
       </c>
       <c r="C49">
-        <v>0.019008240172957457</v>
+        <v>0.01939000689949269</v>
       </c>
       <c r="D49">
-        <v>-0.15579377463429991</v>
+        <v>-0.15667911597884102</v>
       </c>
       <c r="E49">
-        <v>-0.081282147891980877</v>
+        <v>-0.080670957899077078</v>
       </c>
     </row>
     <row r="50">
@@ -1074,16 +1074,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0046046332684858285</v>
+        <v>0.00094301832715793725</v>
       </c>
       <c r="C50">
-        <v>0.0090043589285595492</v>
+        <v>0.0091784120580223425</v>
       </c>
       <c r="D50">
-        <v>-0.013043607934383972</v>
+        <v>-0.017046361709155911</v>
       </c>
       <c r="E50">
-        <v>0.022252874471355627</v>
+        <v>0.018932398363471784</v>
       </c>
     </row>
     <row r="51">
@@ -1091,16 +1091,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.041038592905962117</v>
+        <v>-0.041674229746612369</v>
       </c>
       <c r="C51">
-        <v>0.010171046136637654</v>
+        <v>0.010379796364194208</v>
       </c>
       <c r="D51">
-        <v>-0.060973502447492306</v>
+        <v>-0.062018283358987666</v>
       </c>
       <c r="E51">
-        <v>-0.021103683364431931</v>
+        <v>-0.021330176134237069</v>
       </c>
     </row>
     <row r="52">
@@ -1108,16 +1108,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.0061414941597962751</v>
+        <v>0.0059389693792012343</v>
       </c>
       <c r="C52">
-        <v>0.010038002144667777</v>
+        <v>0.010260387929432751</v>
       </c>
       <c r="D52">
-        <v>-0.013532658197432917</v>
+        <v>-0.014171052473035947</v>
       </c>
       <c r="E52">
-        <v>0.025815646517025465</v>
+        <v>0.026048991231438418</v>
       </c>
     </row>
     <row r="53">
@@ -1125,16 +1125,16 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.027154432628097691</v>
+        <v>-0.026535048336746837</v>
       </c>
       <c r="C53">
-        <v>0.011430451005981007</v>
+        <v>0.011692119434044732</v>
       </c>
       <c r="D53">
-        <v>-0.049557738098322382</v>
+        <v>-0.049451216055128047</v>
       </c>
       <c r="E53">
-        <v>-0.0047511271578730002</v>
+        <v>-0.0036188806183656309</v>
       </c>
     </row>
     <row r="54">
@@ -1142,16 +1142,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.021546144112600359</v>
+        <v>-0.018948167703150238</v>
       </c>
       <c r="C54">
-        <v>0.018495060334079733</v>
+        <v>0.018891742089980287</v>
       </c>
       <c r="D54">
-        <v>-0.057796058780005433</v>
+        <v>-0.055975577548681876</v>
       </c>
       <c r="E54">
-        <v>0.014703770554804711</v>
+        <v>0.018079242142381404</v>
       </c>
     </row>
     <row r="55">
@@ -1159,16 +1159,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.083483300783436326</v>
+        <v>-0.085223586279668626</v>
       </c>
       <c r="C55">
-        <v>0.022355403128821304</v>
+        <v>0.022861463115580356</v>
       </c>
       <c r="D55">
-        <v>-0.12729949414095204</v>
+        <v>-0.13003165961947719</v>
       </c>
       <c r="E55">
-        <v>-0.039667107425920604</v>
+        <v>-0.040415512939860072</v>
       </c>
     </row>
   </sheetData>

--- a/linreg/rifdid_coefs-sltt_blk0.xlsx
+++ b/linreg/rifdid_coefs-sltt_blk0.xlsx
@@ -258,16 +258,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.053326207839693759</v>
+        <v>-0.053409393884569618</v>
       </c>
       <c r="C2">
-        <v>0.0098895021922550969</v>
+        <v>0.010936365897328697</v>
       </c>
       <c r="D2">
-        <v>-0.072709300708240457</v>
+        <v>-0.074844305747975653</v>
       </c>
       <c r="E2">
-        <v>-0.033943114971147062</v>
+        <v>-0.031974482021163583</v>
       </c>
     </row>
     <row r="3">
@@ -275,16 +275,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.041187039593333676</v>
+        <v>-0.041197781007235118</v>
       </c>
       <c r="C3">
-        <v>0.0077007084338397798</v>
+        <v>0.0082237504040701698</v>
       </c>
       <c r="D3">
-        <v>-0.056280170492483933</v>
+        <v>-0.057316057697845438</v>
       </c>
       <c r="E3">
-        <v>-0.026093908694183418</v>
+        <v>-0.025079504316624795</v>
       </c>
     </row>
     <row r="4">
@@ -292,16 +292,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.058378675286295839</v>
+        <v>-0.058353280975296344</v>
       </c>
       <c r="C4">
-        <v>0.010217630273707135</v>
+        <v>0.010978920009276026</v>
       </c>
       <c r="D4">
-        <v>-0.078404893543882775</v>
+        <v>-0.079871603514824224</v>
       </c>
       <c r="E4">
-        <v>-0.03835245702870891</v>
+        <v>-0.036834958435768464</v>
       </c>
     </row>
     <row r="5">
@@ -309,16 +309,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-0.052459253855981908</v>
+        <v>-0.052446826787112946</v>
       </c>
       <c r="C5">
-        <v>0.0078773977526592313</v>
+        <v>0.0076706208043054933</v>
       </c>
       <c r="D5">
-        <v>-0.067898693138367827</v>
+        <v>-0.067480991189071193</v>
       </c>
       <c r="E5">
-        <v>-0.037019814573595981</v>
+        <v>-0.037412662385154699</v>
       </c>
     </row>
     <row r="6">
@@ -326,16 +326,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.050512943355998555</v>
+        <v>-0.050648497471115293</v>
       </c>
       <c r="C6">
-        <v>0.024905025318223351</v>
+        <v>0.025752187017136972</v>
       </c>
       <c r="D6">
-        <v>-0.099326259527633853</v>
+        <v>-0.10112224713685772</v>
       </c>
       <c r="E6">
-        <v>-0.0016996271843632491</v>
+        <v>-0.00017474780537286155</v>
       </c>
     </row>
     <row r="7">
@@ -343,16 +343,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0370090797771448</v>
+        <v>0.03746401207669995</v>
       </c>
       <c r="C7">
-        <v>0.028141725314076091</v>
+        <v>0.030113397796505244</v>
       </c>
       <c r="D7">
-        <v>-0.018148216385693437</v>
+        <v>-0.021557757149188263</v>
       </c>
       <c r="E7">
-        <v>0.092166375939983031</v>
+        <v>0.096485781302588169</v>
       </c>
     </row>
     <row r="8">
@@ -360,16 +360,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.023886978326183205</v>
+        <v>-0.023950716954273775</v>
       </c>
       <c r="C8">
-        <v>0.0094044662895059524</v>
+        <v>0.0099203725303353921</v>
       </c>
       <c r="D8">
-        <v>-0.042319417080417782</v>
+        <v>-0.043394315754477886</v>
       </c>
       <c r="E8">
-        <v>-0.0054545395719486287</v>
+        <v>-0.0045071181540696607</v>
       </c>
     </row>
     <row r="9">
@@ -377,16 +377,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08173152237329355</v>
+        <v>-0.08011349332521682</v>
       </c>
       <c r="C9">
-        <v>0.0076977224369826321</v>
+        <v>0.0078654733145022207</v>
       </c>
       <c r="D9">
-        <v>-0.09681880081850186</v>
+        <v>-0.095529558861813441</v>
       </c>
       <c r="E9">
-        <v>-0.066644243928085239</v>
+        <v>-0.064697427788620199</v>
       </c>
     </row>
     <row r="10">
@@ -394,16 +394,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.02586314239595934</v>
+        <v>-0.026268242600263537</v>
       </c>
       <c r="C10">
-        <v>0.009961030846317255</v>
+        <v>0.0095261684227990698</v>
       </c>
       <c r="D10">
-        <v>-0.045386434241058538</v>
+        <v>-0.044939219755982272</v>
       </c>
       <c r="E10">
-        <v>-0.0063398505508601433</v>
+        <v>-0.0075972654445448026</v>
       </c>
     </row>
     <row r="11">
@@ -411,16 +411,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.090809535674349504</v>
+        <v>-0.091024337669478331</v>
       </c>
       <c r="C11">
-        <v>0.0077083239853231169</v>
+        <v>0.0074142282705403646</v>
       </c>
       <c r="D11">
-        <v>-0.10591759595988981</v>
+        <v>-0.10555598114094084</v>
       </c>
       <c r="E11">
-        <v>-0.075701475388809197</v>
+        <v>-0.076492694198015826</v>
       </c>
     </row>
     <row r="12">
@@ -428,16 +428,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.049565143349355759</v>
+        <v>-0.048632434415056117</v>
       </c>
       <c r="C12">
-        <v>0.018599448757833974</v>
+        <v>0.018031871169262161</v>
       </c>
       <c r="D12">
-        <v>-0.086019664524644657</v>
+        <v>-0.08397452597398275</v>
       </c>
       <c r="E12">
-        <v>-0.01311062217406686</v>
+        <v>-0.013290342856129483</v>
       </c>
     </row>
     <row r="13">
@@ -445,16 +445,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01051621079450238</v>
+        <v>0.010617891994827608</v>
       </c>
       <c r="C13">
-        <v>0.021832981557853202</v>
+        <v>0.022808629971091079</v>
       </c>
       <c r="D13">
-        <v>-0.032276056433759803</v>
+        <v>-0.034086651265602688</v>
       </c>
       <c r="E13">
-        <v>0.05330847802276456</v>
+        <v>0.055322435255257901</v>
       </c>
     </row>
     <row r="14">
@@ -462,16 +462,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.021640119872704051</v>
+        <v>-0.022392717653295573</v>
       </c>
       <c r="C14">
-        <v>0.0086574912432216856</v>
+        <v>0.0087675705571767758</v>
       </c>
       <c r="D14">
-        <v>-0.038608512569700902</v>
+        <v>-0.039576863091880618</v>
       </c>
       <c r="E14">
-        <v>-0.0046717271757071993</v>
+        <v>-0.0052085722147105322</v>
       </c>
     </row>
     <row r="15">
@@ -479,16 +479,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.069041977875357499</v>
+        <v>-0.070864650549751676</v>
       </c>
       <c r="C15">
-        <v>0.0076426364996973715</v>
+        <v>0.0081235451890629348</v>
       </c>
       <c r="D15">
-        <v>-0.084021289726415177</v>
+        <v>-0.08678652835883352</v>
       </c>
       <c r="E15">
-        <v>-0.054062666024299828</v>
+        <v>-0.054942772740669832</v>
       </c>
     </row>
     <row r="16">
@@ -496,16 +496,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.024263410687221175</v>
+        <v>-0.025038654029724099</v>
       </c>
       <c r="C16">
-        <v>0.0090422178669534274</v>
+        <v>0.01011747190063377</v>
       </c>
       <c r="D16">
-        <v>-0.041985859404340589</v>
+        <v>-0.044868566576541535</v>
       </c>
       <c r="E16">
-        <v>-0.0065409619701017642</v>
+        <v>-0.0052087414829066654</v>
       </c>
     </row>
     <row r="17">
@@ -513,16 +513,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>-0.071817227313649062</v>
+        <v>-0.071257780999121709</v>
       </c>
       <c r="C17">
-        <v>0.0077702133958430508</v>
+        <v>0.0082486387399135792</v>
       </c>
       <c r="D17">
-        <v>-0.087046588798639732</v>
+        <v>-0.087424841537248596</v>
       </c>
       <c r="E17">
-        <v>-0.056587865828658393</v>
+        <v>-0.055090720460994821</v>
       </c>
     </row>
     <row r="18">
@@ -530,16 +530,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.0421548234121258</v>
+        <v>-0.042853518449864424</v>
       </c>
       <c r="C18">
-        <v>0.016507501144439492</v>
+        <v>0.015997487959408203</v>
       </c>
       <c r="D18">
-        <v>-0.074509172073540408</v>
+        <v>-0.07420826133079228</v>
       </c>
       <c r="E18">
-        <v>-0.0098004747507111911</v>
+        <v>-0.01149877556893656</v>
       </c>
     </row>
     <row r="19">
@@ -547,16 +547,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.033222040123466356</v>
+        <v>-0.033860754281792839</v>
       </c>
       <c r="C19">
-        <v>0.019835228123497556</v>
+        <v>0.018278719709737042</v>
       </c>
       <c r="D19">
-        <v>-0.072098745082205359</v>
+        <v>-0.069686747208369759</v>
       </c>
       <c r="E19">
-        <v>0.0056546648352726464</v>
+        <v>0.0019652386447840883</v>
       </c>
     </row>
     <row r="20">
@@ -564,16 +564,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01327167322096824</v>
+        <v>-0.015678345003433111</v>
       </c>
       <c r="C20">
-        <v>0.0079545266249021907</v>
+        <v>0.0079783100179282272</v>
       </c>
       <c r="D20">
-        <v>-0.028862278824610677</v>
+        <v>-0.031315566147889579</v>
       </c>
       <c r="E20">
-        <v>0.0023189323826741971</v>
+        <v>-4.1123858976640365e-05</v>
       </c>
     </row>
     <row r="21">
@@ -581,16 +581,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.077285144174161158</v>
+        <v>-0.07393945256542428</v>
       </c>
       <c r="C21">
-        <v>0.007258901340889609</v>
+        <v>0.0077502965155812117</v>
       </c>
       <c r="D21">
-        <v>-0.091512347952013434</v>
+        <v>-0.089129775415031171</v>
       </c>
       <c r="E21">
-        <v>-0.063057940396308881</v>
+        <v>-0.058749129715817382</v>
       </c>
     </row>
     <row r="22">
@@ -598,16 +598,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.027581476569683367</v>
+        <v>-0.028574021678970718</v>
       </c>
       <c r="C22">
-        <v>0.0087244249916838112</v>
+        <v>0.0089586527422834891</v>
       </c>
       <c r="D22">
-        <v>-0.044681061735238156</v>
+        <v>-0.046132686744861304</v>
       </c>
       <c r="E22">
-        <v>-0.010481891404128581</v>
+        <v>-0.011015356613080136</v>
       </c>
     </row>
     <row r="23">
@@ -615,16 +615,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.066591440245256803</v>
+        <v>-0.070166369964854911</v>
       </c>
       <c r="C23">
-        <v>0.0077012984006409766</v>
+        <v>0.0082931240325458538</v>
       </c>
       <c r="D23">
-        <v>-0.081685730616984323</v>
+        <v>-0.086420620212910818</v>
       </c>
       <c r="E23">
-        <v>-0.05149714987352929</v>
+        <v>-0.053912119716799003</v>
       </c>
     </row>
     <row r="24">
@@ -632,16 +632,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.031396654661652798</v>
+        <v>-0.03078374369269184</v>
       </c>
       <c r="C24">
-        <v>0.014929552092987632</v>
+        <v>0.014818303200214676</v>
       </c>
       <c r="D24">
-        <v>-0.060658256981031305</v>
+        <v>-0.059827309029530484</v>
       </c>
       <c r="E24">
-        <v>-0.0021350523422742906</v>
+        <v>-0.0017401783558531961</v>
       </c>
     </row>
     <row r="25">
@@ -649,16 +649,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.051277358997824318</v>
+        <v>-0.052110823145036421</v>
       </c>
       <c r="C25">
-        <v>0.018155816797564672</v>
+        <v>0.019076548059742276</v>
       </c>
       <c r="D25">
-        <v>-0.086862446728057013</v>
+        <v>-0.089500546643436929</v>
       </c>
       <c r="E25">
-        <v>-0.015692271267591623</v>
+        <v>-0.014721099646635913</v>
       </c>
     </row>
     <row r="26">
@@ -666,16 +666,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.013361744029754888</v>
+        <v>-0.01161340344436318</v>
       </c>
       <c r="C26">
-        <v>0.007697839655187712</v>
+        <v>0.007955625820075956</v>
       </c>
       <c r="D26">
-        <v>-0.028449251775143347</v>
+        <v>-0.02720616431872442</v>
       </c>
       <c r="E26">
-        <v>0.0017257637156335697</v>
+        <v>0.0039793574299980608</v>
       </c>
     </row>
     <row r="27">
@@ -683,16 +683,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>-0.078296331066685182</v>
+        <v>-0.078420509604172517</v>
       </c>
       <c r="C27">
-        <v>0.007267071496924511</v>
+        <v>0.0074577348740955387</v>
       </c>
       <c r="D27">
-        <v>-0.092539548077029077</v>
+        <v>-0.093037421387680994</v>
       </c>
       <c r="E27">
-        <v>-0.064053114056341287</v>
+        <v>-0.06380359782066404</v>
       </c>
     </row>
     <row r="28">
@@ -700,16 +700,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.02333360728056182</v>
+        <v>-0.02077853139611166</v>
       </c>
       <c r="C28">
-        <v>0.0086087134499763292</v>
+        <v>0.0083935017921517707</v>
       </c>
       <c r="D28">
-        <v>-0.040206401641685277</v>
+        <v>-0.037229519166040517</v>
       </c>
       <c r="E28">
-        <v>-0.0064608129194383586</v>
+        <v>-0.0043275436261828032</v>
       </c>
     </row>
     <row r="29">
@@ -717,16 +717,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.08507995722579037</v>
+        <v>-0.081977128516457026</v>
       </c>
       <c r="C29">
-        <v>0.0078734799221383961</v>
+        <v>0.0072084501501968861</v>
       </c>
       <c r="D29">
-        <v>-0.10051171768982227</v>
+        <v>-0.096105453642443078</v>
       </c>
       <c r="E29">
-        <v>-0.069648196761758471</v>
+        <v>-0.067848803390470974</v>
       </c>
     </row>
     <row r="30">
@@ -734,16 +734,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.030834103305568152</v>
+        <v>-0.029859602011330557</v>
       </c>
       <c r="C30">
-        <v>0.01342117104248618</v>
+        <v>0.013949939663068655</v>
       </c>
       <c r="D30">
-        <v>-0.057139311074664662</v>
+        <v>-0.057201192919216812</v>
       </c>
       <c r="E30">
-        <v>-0.0045288955364716429</v>
+        <v>-0.0025180111034443023</v>
       </c>
     </row>
     <row r="31">
@@ -751,16 +751,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.084187766614104625</v>
+        <v>-0.084045460015076096</v>
       </c>
       <c r="C31">
-        <v>0.017822118516844333</v>
+        <v>0.019187553904729576</v>
       </c>
       <c r="D31">
-        <v>-0.11911881147051553</v>
+        <v>-0.12165275316170558</v>
       </c>
       <c r="E31">
-        <v>-0.049256721757693717</v>
+        <v>-0.046438166868446609</v>
       </c>
     </row>
     <row r="32">
@@ -768,16 +768,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0094472520661687924</v>
+        <v>-0.0059324932926342853</v>
       </c>
       <c r="C32">
-        <v>0.007362424956916783</v>
+        <v>0.0068220497077040622</v>
       </c>
       <c r="D32">
-        <v>-0.023877358243746032</v>
+        <v>-0.019303482850338224</v>
       </c>
       <c r="E32">
-        <v>0.0049828541114084451</v>
+        <v>0.007438496265069653</v>
       </c>
     </row>
     <row r="33">
@@ -785,16 +785,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.066229997368756441</v>
+        <v>-0.066179524663568884</v>
       </c>
       <c r="C33">
-        <v>0.0073908098799308286</v>
+        <v>0.0072198034928526774</v>
       </c>
       <c r="D33">
-        <v>-0.08071573747006125</v>
+        <v>-0.080330098870203245</v>
       </c>
       <c r="E33">
-        <v>-0.051744257267451639</v>
+        <v>-0.052028950456934515</v>
       </c>
     </row>
     <row r="34">
@@ -802,16 +802,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.0087896585815980983</v>
+        <v>-0.0053613654916186059</v>
       </c>
       <c r="C34">
-        <v>0.0086049086578912238</v>
+        <v>0.0088356851972075899</v>
       </c>
       <c r="D34">
-        <v>-0.025654995675754567</v>
+        <v>-0.022679018208880956</v>
       </c>
       <c r="E34">
-        <v>0.0080756785125583701</v>
+        <v>0.011956287225643743</v>
       </c>
     </row>
     <row r="35">
@@ -819,16 +819,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.074693140079908002</v>
+        <v>-0.072348590643591962</v>
       </c>
       <c r="C35">
-        <v>0.0079918128719636307</v>
+        <v>0.0079813405404029567</v>
       </c>
       <c r="D35">
-        <v>-0.090356829215221673</v>
+        <v>-0.087991755505174074</v>
       </c>
       <c r="E35">
-        <v>-0.059029450944594331</v>
+        <v>-0.056705425782009856</v>
       </c>
     </row>
     <row r="36">
@@ -836,16 +836,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.039565700732364255</v>
+        <v>-0.048215388669748525</v>
       </c>
       <c r="C36">
-        <v>0.012870532941952196</v>
+        <v>0.01343621422937853</v>
       </c>
       <c r="D36">
-        <v>-0.064791669618782466</v>
+        <v>-0.074550088437874681</v>
       </c>
       <c r="E36">
-        <v>-0.014339731845946047</v>
+        <v>-0.021880688901622373</v>
       </c>
     </row>
     <row r="37">
@@ -853,16 +853,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>-0.09022031964160214</v>
+        <v>-0.091815541213802962</v>
       </c>
       <c r="C37">
-        <v>0.017351420196396031</v>
+        <v>0.017250635239779013</v>
       </c>
       <c r="D37">
-        <v>-0.12422880390961402</v>
+        <v>-0.12562650532361766</v>
       </c>
       <c r="E37">
-        <v>-0.056211835373590251</v>
+        <v>-0.058004577103988271</v>
       </c>
     </row>
     <row r="38">
@@ -870,16 +870,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.014491589244579576</v>
+        <v>-0.014340747297011494</v>
       </c>
       <c r="C38">
-        <v>0.0075417642004547416</v>
+        <v>0.0071080862575655362</v>
       </c>
       <c r="D38">
-        <v>-0.029273194329270003</v>
+        <v>-0.028272358938280784</v>
       </c>
       <c r="E38">
-        <v>0.00029001584011085178</v>
+        <v>-0.00040913565574220677</v>
       </c>
     </row>
     <row r="39">
@@ -887,16 +887,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.050236714579246944</v>
+        <v>-0.052588511744695046</v>
       </c>
       <c r="C39">
-        <v>0.0078859159960621324</v>
+        <v>0.0080106199255186028</v>
       </c>
       <c r="D39">
-        <v>-0.065692846104138419</v>
+        <v>-0.068289059801080756</v>
       </c>
       <c r="E39">
-        <v>-0.034780583054355468</v>
+        <v>-0.036887963688309336</v>
       </c>
     </row>
     <row r="40">
@@ -904,16 +904,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.0024266809595758642</v>
+        <v>0.00336118063851725</v>
       </c>
       <c r="C40">
-        <v>0.0090176245459179273</v>
+        <v>0.0095446722326958996</v>
       </c>
       <c r="D40">
-        <v>-0.015247565659645836</v>
+        <v>-0.015346063376713502</v>
       </c>
       <c r="E40">
-        <v>0.020100927578797563</v>
+        <v>0.022068424653748003</v>
       </c>
     </row>
     <row r="41">
@@ -921,16 +921,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.046932986422586594</v>
+        <v>-0.047777721789058959</v>
       </c>
       <c r="C41">
-        <v>0.0085280384961990904</v>
+        <v>0.0079707371342824171</v>
       </c>
       <c r="D41">
-        <v>-0.063647660061538935</v>
+        <v>-0.063400104323512146</v>
       </c>
       <c r="E41">
-        <v>-0.030218312783634255</v>
+        <v>-0.032155339254605765</v>
       </c>
     </row>
     <row r="42">
@@ -938,16 +938,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.05647708909809137</v>
+        <v>-0.05646317500588266</v>
       </c>
       <c r="C42">
-        <v>0.013543062692083942</v>
+        <v>0.012720735913217679</v>
       </c>
       <c r="D42">
-        <v>-0.083021201889546717</v>
+        <v>-0.08139555219079915</v>
       </c>
       <c r="E42">
-        <v>-0.029932976306636019</v>
+        <v>-0.031530797820966169</v>
       </c>
     </row>
     <row r="43">
@@ -955,16 +955,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.10267360741643089</v>
+        <v>-0.10446731836023264</v>
       </c>
       <c r="C43">
-        <v>0.018127928809503098</v>
+        <v>0.020290147169746153</v>
       </c>
       <c r="D43">
-        <v>-0.13820403517113861</v>
+        <v>-0.14423567634841844</v>
       </c>
       <c r="E43">
-        <v>-0.067143179661723174</v>
+        <v>-0.064698960372046838</v>
       </c>
     </row>
     <row r="44">
@@ -972,16 +972,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0092920511639559174</v>
+        <v>-0.010327060341784782</v>
       </c>
       <c r="C44">
-        <v>0.0080779049838059693</v>
+        <v>0.0086082311652528696</v>
       </c>
       <c r="D44">
-        <v>-0.025124474216253523</v>
+        <v>-0.027198905894436791</v>
       </c>
       <c r="E44">
-        <v>0.0065403718883416881</v>
+        <v>0.0065447852108672291</v>
       </c>
     </row>
     <row r="45">
@@ -989,16 +989,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>-0.050968672458003968</v>
+        <v>-0.052156658587050771</v>
       </c>
       <c r="C45">
-        <v>0.0084407287148684142</v>
+        <v>0.0078350534908732342</v>
       </c>
       <c r="D45">
-        <v>-0.06751221835020986</v>
+        <v>-0.067513102283241228</v>
       </c>
       <c r="E45">
-        <v>-0.034425126565798075</v>
+        <v>-0.036800214890860314</v>
       </c>
     </row>
     <row r="46">
@@ -1006,16 +1006,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0040341633543072341</v>
+        <v>0.0039297776527214322</v>
       </c>
       <c r="C46">
-        <v>0.0096118876912200182</v>
+        <v>0.010457811890258763</v>
       </c>
       <c r="D46">
-        <v>-0.014804819425008654</v>
+        <v>-0.016567190092937289</v>
       </c>
       <c r="E46">
-        <v>0.02287314613362312</v>
+        <v>0.024426745398380151</v>
       </c>
     </row>
     <row r="47">
@@ -1023,16 +1023,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.040943553074369844</v>
+        <v>-0.039904707690273801</v>
       </c>
       <c r="C47">
-        <v>0.0094625093095081856</v>
+        <v>0.0084735362297295967</v>
       </c>
       <c r="D47">
-        <v>-0.059489758627319686</v>
+        <v>-0.056512559908988513</v>
       </c>
       <c r="E47">
-        <v>-0.022397347521420006</v>
+        <v>-0.023296855471559089</v>
       </c>
     </row>
     <row r="48">
@@ -1040,16 +1040,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.048412164449430049</v>
+        <v>-0.048255270848543488</v>
       </c>
       <c r="C48">
-        <v>0.01491585751659393</v>
+        <v>0.014161312926831399</v>
       </c>
       <c r="D48">
-        <v>-0.077646925692407276</v>
+        <v>-0.076011148946643611</v>
       </c>
       <c r="E48">
-        <v>-0.019177403206452826</v>
+        <v>-0.020499392750443369</v>
       </c>
     </row>
     <row r="49">
@@ -1057,16 +1057,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.11867503693895905</v>
+        <v>-0.12046451497794451</v>
       </c>
       <c r="C49">
-        <v>0.01939000689949269</v>
+        <v>0.021343723783655094</v>
       </c>
       <c r="D49">
-        <v>-0.15667911597884102</v>
+        <v>-0.16229786596984719</v>
       </c>
       <c r="E49">
-        <v>-0.080670957899077078</v>
+        <v>-0.078631163986041835</v>
       </c>
     </row>
     <row r="50">
@@ -1074,16 +1074,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.00094301832715793725</v>
+        <v>0.0010442271643383485</v>
       </c>
       <c r="C50">
-        <v>0.0091784120580223425</v>
+        <v>0.0090871050615831186</v>
       </c>
       <c r="D50">
-        <v>-0.017046361709155911</v>
+        <v>-0.016766195229824782</v>
       </c>
       <c r="E50">
-        <v>0.018932398363471784</v>
+        <v>0.018854649558501482</v>
       </c>
     </row>
     <row r="51">
@@ -1091,16 +1091,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.041674229746612369</v>
+        <v>-0.04117040178923792</v>
       </c>
       <c r="C51">
-        <v>0.010379796364194208</v>
+        <v>0.010150435114437709</v>
       </c>
       <c r="D51">
-        <v>-0.062018283358987666</v>
+        <v>-0.061064916294884856</v>
       </c>
       <c r="E51">
-        <v>-0.021330176134237069</v>
+        <v>-0.021275887283590984</v>
       </c>
     </row>
     <row r="52">
@@ -1108,16 +1108,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.0059389693792012343</v>
+        <v>0.0010867476377361843</v>
       </c>
       <c r="C52">
-        <v>0.010260387929432751</v>
+        <v>0.010105098767109646</v>
       </c>
       <c r="D52">
-        <v>-0.014171052473035947</v>
+        <v>-0.018718913973855215</v>
       </c>
       <c r="E52">
-        <v>0.026048991231438418</v>
+        <v>0.020892409249327587</v>
       </c>
     </row>
     <row r="53">
@@ -1125,16 +1125,16 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.026535048336746837</v>
+        <v>-0.027689940664026299</v>
       </c>
       <c r="C53">
-        <v>0.011692119434044732</v>
+        <v>0.012292349666584455</v>
       </c>
       <c r="D53">
-        <v>-0.049451216055128047</v>
+        <v>-0.051782541574510219</v>
       </c>
       <c r="E53">
-        <v>-0.0036188806183656309</v>
+        <v>-0.0035973397535423828</v>
       </c>
     </row>
     <row r="54">
@@ -1142,16 +1142,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.018948167703150238</v>
+        <v>-0.018751182657079361</v>
       </c>
       <c r="C54">
-        <v>0.018891742089980287</v>
+        <v>0.017947173004440455</v>
       </c>
       <c r="D54">
-        <v>-0.055975577548681876</v>
+        <v>-0.053927267578763351</v>
       </c>
       <c r="E54">
-        <v>0.018079242142381404</v>
+        <v>0.016424902264604628</v>
       </c>
     </row>
     <row r="55">
@@ -1159,16 +1159,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.085223586279668626</v>
+        <v>-0.086288820328780727</v>
       </c>
       <c r="C55">
-        <v>0.022861463115580356</v>
+        <v>0.02534047128157824</v>
       </c>
       <c r="D55">
-        <v>-0.13003165961947719</v>
+        <v>-0.13595573132180497</v>
       </c>
       <c r="E55">
-        <v>-0.040415512939860072</v>
+        <v>-0.036621909335756479</v>
       </c>
     </row>
   </sheetData>
